--- a/OpenXmlImports.Tests/TestFiles/Missing_Column.xlsx
+++ b/OpenXmlImports.Tests/TestFiles/Missing_Column.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\git\openxmlimports\OpenXmlImports.Tests\TestFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="15300" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="15300" windowHeight="9530"/>
   </bookViews>
   <sheets>
     <sheet name="Item 1s" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,6 +78,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -121,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,7 +164,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,12 +377,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>41268.499652777777</v>
       </c>
@@ -390,12 +398,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>41275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>

--- a/OpenXmlImports.Tests/TestFiles/Missing_Column.xlsx
+++ b/OpenXmlImports.Tests/TestFiles/Missing_Column.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="15300" windowHeight="9530"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="15300" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Item 1s" sheetId="1" r:id="rId1"/>
@@ -377,12 +377,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41268.499652777777</v>
       </c>
@@ -398,12 +398,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
